--- a/服务设计工具/功能点整理.xlsx
+++ b/服务设计工具/功能点整理.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>功能</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Sub element type</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>sub test2</t>
   </si>
   <si>
@@ -91,10 +88,7 @@
     <t>sub test5</t>
   </si>
   <si>
-    <t>test6</t>
-  </si>
-  <si>
-    <t>String</t>
+    <t>int</t>
   </si>
   <si>
     <t>提交</t>
@@ -829,7 +823,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -878,7 +872,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -890,22 +887,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1227,10 +1212,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1288,11 +1273,11 @@
       <c r="D9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
@@ -1333,7 +1318,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="16" spans="3:13">
+    <row r="16" spans="3:12">
       <c r="C16" t="s">
         <v>7</v>
       </c>
@@ -1343,7 +1328,7 @@
       <c r="E16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G16" t="s">
@@ -1363,9 +1348,6 @@
       </c>
       <c r="L16" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -1374,17 +1356,17 @@
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="3:13">
+    <row r="18" spans="3:12">
       <c r="C18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G18" t="s">
@@ -1397,16 +1379,13 @@
         <v>15</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K18" t="s">
         <v>17</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="3:6">
@@ -1415,17 +1394,17 @@
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="3:13">
+    <row r="20" spans="3:12">
       <c r="C20" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>19</v>
+      <c r="D20" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G20" t="s">
@@ -1438,7 +1417,7 @@
         <v>15</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K20" t="s">
         <v>17</v>
@@ -1446,28 +1425,24 @@
       <c r="L20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M20" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13">
+    </row>
+    <row r="21" spans="3:6">
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13">
+    </row>
+    <row r="22" spans="3:12">
       <c r="C22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>19</v>
+      <c r="D22" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G22" t="s">
@@ -1480,108 +1455,89 @@
         <v>15</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K22" t="s">
         <v>17</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13">
+    </row>
+    <row r="24" spans="3:12">
       <c r="C24" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>20</v>
+      <c r="D24" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="9">
         <v>0</v>
       </c>
       <c r="I24" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="22" t="s">
-        <v>23</v>
+      <c r="J24" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="K24" t="s">
         <v>17</v>
       </c>
-      <c r="L24" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13">
+      <c r="L24" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12">
       <c r="C25" s="15"/>
-      <c r="D25" s="17"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="17"/>
-      <c r="H25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="3:13">
+      <c r="F25" s="18"/>
+      <c r="H25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="L25" s="21"/>
+    </row>
+    <row r="26" spans="3:12">
       <c r="C26" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="24" t="s">
-        <v>13</v>
+      <c r="F26" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="9">
         <v>1</v>
       </c>
-      <c r="I26" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="I26"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="21"/>
     </row>
     <row r="29" spans="12:12">
       <c r="L29" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/服务设计工具/功能点整理.xlsx
+++ b/服务设计工具/功能点整理.xlsx
@@ -498,7 +498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -547,19 +547,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -687,7 +674,7 @@
     <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,7 +707,7 @@
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,19 +725,19 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -786,7 +773,7 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -804,13 +791,13 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -819,11 +806,11 @@
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -875,13 +862,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1214,8 +1198,8 @@
   <sheetPr/>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1273,11 +1257,11 @@
       <c r="D9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
@@ -1474,7 +1458,7 @@
       <c r="C24" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E24" s="15" t="s">
@@ -1504,18 +1488,18 @@
     </row>
     <row r="25" spans="3:12">
       <c r="C25" s="15"/>
-      <c r="D25" s="18"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="18"/>
-      <c r="H25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="L25" s="21"/>
+      <c r="F25" s="17"/>
+      <c r="H25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="L25" s="20"/>
     </row>
     <row r="26" spans="3:12">
       <c r="C26" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="15" t="s">
@@ -1531,9 +1515,9 @@
         <v>1</v>
       </c>
       <c r="I26"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="21"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="20"/>
     </row>
     <row r="29" spans="12:12">
       <c r="L29" s="4" t="s">
